--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Gnai2-Adra2b.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Gnai2-Adra2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>173.715416527027</v>
+        <v>184.0626906666667</v>
       </c>
       <c r="H2">
-        <v>173.715416527027</v>
+        <v>552.188072</v>
       </c>
       <c r="I2">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503485</v>
       </c>
       <c r="J2">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503486</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.29445318450607</v>
+        <v>7.500967</v>
       </c>
       <c r="N2">
-        <v>2.29445318450607</v>
+        <v>22.502901</v>
       </c>
       <c r="O2">
-        <v>0.5826182866705455</v>
+        <v>0.7817272339743909</v>
       </c>
       <c r="P2">
-        <v>0.5826182866705455</v>
+        <v>0.7817272339743909</v>
       </c>
       <c r="Q2">
-        <v>398.5818906482355</v>
+        <v>1380.648168621875</v>
       </c>
       <c r="R2">
-        <v>398.5818906482355</v>
+        <v>12425.83351759687</v>
       </c>
       <c r="S2">
-        <v>0.3736535032281604</v>
+        <v>0.5089439652897182</v>
       </c>
       <c r="T2">
-        <v>0.3736535032281604</v>
+        <v>0.5089439652897183</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>173.715416527027</v>
+        <v>184.0626906666667</v>
       </c>
       <c r="H3">
-        <v>173.715416527027</v>
+        <v>552.188072</v>
       </c>
       <c r="I3">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503485</v>
       </c>
       <c r="J3">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503486</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.64372252504477</v>
+        <v>0.001031</v>
       </c>
       <c r="N3">
-        <v>1.64372252504477</v>
+        <v>0.003093</v>
       </c>
       <c r="O3">
-        <v>0.4173817133294546</v>
+        <v>0.0001074475835219108</v>
       </c>
       <c r="P3">
-        <v>0.4173817133294546</v>
+        <v>0.0001074475835219108</v>
       </c>
       <c r="Q3">
-        <v>285.5399430930088</v>
+        <v>0.1897686340773333</v>
       </c>
       <c r="R3">
-        <v>285.5399430930088</v>
+        <v>1.707917706696</v>
       </c>
       <c r="S3">
-        <v>0.2676815042317945</v>
+        <v>6.995381105045515E-05</v>
       </c>
       <c r="T3">
-        <v>0.2676815042317945</v>
+        <v>6.995381105045516E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>56.9446226060136</v>
+        <v>184.0626906666667</v>
       </c>
       <c r="H4">
-        <v>56.9446226060136</v>
+        <v>552.188072</v>
       </c>
       <c r="I4">
-        <v>0.2102322332350399</v>
+        <v>0.6510505751503485</v>
       </c>
       <c r="J4">
-        <v>0.2102322332350399</v>
+        <v>0.6510505751503486</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.29445318450607</v>
+        <v>2.093378333333333</v>
       </c>
       <c r="N4">
-        <v>2.29445318450607</v>
+        <v>6.280135</v>
       </c>
       <c r="O4">
-        <v>0.5826182866705455</v>
+        <v>0.2181653184420871</v>
       </c>
       <c r="P4">
-        <v>0.5826182866705455</v>
+        <v>0.2181653184420871</v>
       </c>
       <c r="Q4">
-        <v>130.6567706788642</v>
+        <v>385.3128486166356</v>
       </c>
       <c r="R4">
-        <v>130.6567706788642</v>
+        <v>3467.81563754972</v>
       </c>
       <c r="S4">
-        <v>0.1224851435303215</v>
+        <v>0.1420366560495798</v>
       </c>
       <c r="T4">
-        <v>0.1224851435303215</v>
+        <v>0.1420366560495798</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>56.9446226060136</v>
+        <v>57.4434</v>
       </c>
       <c r="H5">
-        <v>56.9446226060136</v>
+        <v>172.3302</v>
       </c>
       <c r="I5">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="J5">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.64372252504477</v>
+        <v>7.500967</v>
       </c>
       <c r="N5">
-        <v>1.64372252504477</v>
+        <v>22.502901</v>
       </c>
       <c r="O5">
-        <v>0.4173817133294546</v>
+        <v>0.7817272339743909</v>
       </c>
       <c r="P5">
-        <v>0.4173817133294546</v>
+        <v>0.7817272339743909</v>
       </c>
       <c r="Q5">
-        <v>93.60115885767817</v>
+        <v>430.8810477678</v>
       </c>
       <c r="R5">
-        <v>93.60115885767817</v>
+        <v>3877.9294299102</v>
       </c>
       <c r="S5">
-        <v>0.08774708970471846</v>
+        <v>0.1588343171005153</v>
       </c>
       <c r="T5">
-        <v>0.08774708970471846</v>
+        <v>0.1588343171005153</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.2052878900969</v>
+        <v>57.4434</v>
       </c>
       <c r="H6">
-        <v>40.2052878900969</v>
+        <v>172.3302</v>
       </c>
       <c r="I6">
-        <v>0.1484327593050052</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="J6">
-        <v>0.1484327593050052</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.29445318450607</v>
+        <v>0.001031</v>
       </c>
       <c r="N6">
-        <v>2.29445318450607</v>
+        <v>0.003093</v>
       </c>
       <c r="O6">
-        <v>0.5826182866705455</v>
+        <v>0.0001074475835219108</v>
       </c>
       <c r="P6">
-        <v>0.5826182866705455</v>
+        <v>0.0001074475835219108</v>
       </c>
       <c r="Q6">
-        <v>92.24915083341615</v>
+        <v>0.0592241454</v>
       </c>
       <c r="R6">
-        <v>92.24915083341615</v>
+        <v>0.5330173086</v>
       </c>
       <c r="S6">
-        <v>0.0864796399120636</v>
+        <v>2.183160930192485E-05</v>
       </c>
       <c r="T6">
-        <v>0.0864796399120636</v>
+        <v>2.183160930192485E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>40.2052878900969</v>
+        <v>57.4434</v>
       </c>
       <c r="H7">
-        <v>40.2052878900969</v>
+        <v>172.3302</v>
       </c>
       <c r="I7">
-        <v>0.1484327593050052</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="J7">
-        <v>0.1484327593050052</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.64372252504477</v>
+        <v>2.093378333333333</v>
       </c>
       <c r="N7">
-        <v>1.64372252504477</v>
+        <v>6.280135</v>
       </c>
       <c r="O7">
-        <v>0.4173817133294546</v>
+        <v>0.2181653184420871</v>
       </c>
       <c r="P7">
-        <v>0.4173817133294546</v>
+        <v>0.2181653184420871</v>
       </c>
       <c r="Q7">
-        <v>66.08633733086198</v>
+        <v>120.250768953</v>
       </c>
       <c r="R7">
-        <v>66.08633733086198</v>
+        <v>1082.256920577</v>
       </c>
       <c r="S7">
-        <v>0.06195311939294162</v>
+        <v>0.044327660421385</v>
       </c>
       <c r="T7">
-        <v>0.06195311939294162</v>
+        <v>0.04432766042138499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>41.21033366666666</v>
+      </c>
+      <c r="H8">
+        <v>123.631001</v>
+      </c>
+      <c r="I8">
+        <v>0.1457656157184491</v>
+      </c>
+      <c r="J8">
+        <v>0.1457656157184491</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>7.500967</v>
+      </c>
+      <c r="N8">
+        <v>22.502901</v>
+      </c>
+      <c r="O8">
+        <v>0.7817272339743909</v>
+      </c>
+      <c r="P8">
+        <v>0.7817272339743909</v>
+      </c>
+      <c r="Q8">
+        <v>309.1173528926557</v>
+      </c>
+      <c r="R8">
+        <v>2782.056176033901</v>
+      </c>
+      <c r="S8">
+        <v>0.1139489515841572</v>
+      </c>
+      <c r="T8">
+        <v>0.1139489515841572</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>41.21033366666666</v>
+      </c>
+      <c r="H9">
+        <v>123.631001</v>
+      </c>
+      <c r="I9">
+        <v>0.1457656157184491</v>
+      </c>
+      <c r="J9">
+        <v>0.1457656157184491</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.001031</v>
+      </c>
+      <c r="N9">
+        <v>0.003093</v>
+      </c>
+      <c r="O9">
+        <v>0.0001074475835219108</v>
+      </c>
+      <c r="P9">
+        <v>0.0001074475835219108</v>
+      </c>
+      <c r="Q9">
+        <v>0.04248785401033333</v>
+      </c>
+      <c r="R9">
+        <v>0.382390686093</v>
+      </c>
+      <c r="S9">
+        <v>1.566216316953082E-05</v>
+      </c>
+      <c r="T9">
+        <v>1.566216316953082E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>41.21033366666666</v>
+      </c>
+      <c r="H10">
+        <v>123.631001</v>
+      </c>
+      <c r="I10">
+        <v>0.1457656157184491</v>
+      </c>
+      <c r="J10">
+        <v>0.1457656157184491</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.093378333333333</v>
+      </c>
+      <c r="N10">
+        <v>6.280135</v>
+      </c>
+      <c r="O10">
+        <v>0.2181653184420871</v>
+      </c>
+      <c r="P10">
+        <v>0.2181653184420871</v>
+      </c>
+      <c r="Q10">
+        <v>86.26881960723722</v>
+      </c>
+      <c r="R10">
+        <v>776.419376465135</v>
+      </c>
+      <c r="S10">
+        <v>0.03180100197112236</v>
+      </c>
+      <c r="T10">
+        <v>0.03180100197112235</v>
       </c>
     </row>
   </sheetData>
